--- a/data.xlsx
+++ b/data.xlsx
@@ -1,40 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f3807c1ea6070a2/Documents/Excel-Tally/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF34BB2A-88DA-44BD-9FA8-1B4DA3E9DF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_B69079565DA57106E6C4078F93FA678A6EDEF6A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C908AC-036D-4937-A305-F291D39173D7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DCC0384F-1C5F-406C-8E0E-C3118DAF80E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -48,19 +31,71 @@
     <t>GL</t>
   </si>
   <si>
-    <t>Fees received</t>
+    <t>DT Law &amp; Practice</t>
   </si>
   <si>
     <t>Suspense</t>
   </si>
   <si>
-    <t>Tea off</t>
+    <t>Haircut</t>
+  </si>
+  <si>
+    <t>Pears soap</t>
+  </si>
+  <si>
+    <t>Curtain</t>
+  </si>
+  <si>
+    <t>Sasikumar Eye Doctor</t>
+  </si>
+  <si>
+    <t>Eye Drop and Oinment</t>
+  </si>
+  <si>
+    <t>Redwine</t>
+  </si>
+  <si>
+    <t>Redwine returned</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks </t>
+  </si>
+  <si>
+    <t>Tyre air</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Cheruppu repair</t>
+  </si>
+  <si>
+    <t>Auto Sakunthala ATM</t>
+  </si>
+  <si>
+    <t>Bag Century</t>
+  </si>
+  <si>
+    <t>Pears like Soap - paul agencies</t>
+  </si>
+  <si>
+    <t>Tyre Puncture</t>
+  </si>
+  <si>
+    <t>VSR&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;\ * #,##0.00_);_(&quot;₹&quot;\ * \(#,##0.00\);_(&quot;₹&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,7 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,26 +135,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -127,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,44 +175,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -202,31 +240,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -254,26 +275,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -282,166 +286,190 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80232F89-3F61-4055-8BA9-D10D9D1163EA}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -451,35 +479,297 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>45757</v>
-      </c>
-      <c r="B2" s="3">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45786</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-4495</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45759</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3">
+        <v>45786</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45787</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>45787</v>
+      </c>
+      <c r="B5" s="4">
         <v>-50</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>45791</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-5600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>45792</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>45793</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-482</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>45793</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>45794</v>
+      </c>
+      <c r="B10" s="4">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>45794</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>45795</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>45796</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>45798</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>45800</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>45800</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>45804</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-1320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>45804</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>